--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_18-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_18-49.xlsx
@@ -59,6 +59,12 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -332,7 +338,7 @@
     <t>-1:0</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1059,11 +1065,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1079,13 +1085,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1097,7 +1103,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1105,13 +1111,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>-28</v>
+        <v>156</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1131,13 +1137,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1149,7 +1155,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1157,13 +1163,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1183,17 +1189,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1209,13 +1215,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1227,7 +1233,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1235,17 +1241,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1253,7 +1259,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1261,17 +1267,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1279,7 +1285,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1287,17 +1293,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1319,11 +1325,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>27.5</v>
+        <v>66</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1339,13 +1345,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1357,7 +1363,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1365,13 +1371,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1391,17 +1397,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1417,17 +1423,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>122.5</v>
+        <v>52</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1435,7 +1441,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1443,17 +1449,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>35</v>
+        <v>122.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1461,7 +1467,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1469,17 +1475,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1501,11 +1507,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1521,17 +1527,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1539,7 +1545,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1547,13 +1553,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1565,7 +1571,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1573,17 +1579,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1591,7 +1597,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1599,17 +1605,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1617,7 +1623,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1625,17 +1631,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1651,17 +1657,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1669,7 +1675,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1677,17 +1683,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>30.670000000000002</v>
+        <v>30</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1695,7 +1701,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1703,17 +1709,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1721,7 +1727,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1729,17 +1735,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1747,7 +1753,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1755,17 +1761,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1773,7 +1779,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1781,17 +1787,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1799,7 +1805,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1807,13 +1813,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1825,7 +1831,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1833,13 +1839,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1851,7 +1857,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1859,13 +1865,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1877,7 +1883,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1885,13 +1891,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1903,7 +1909,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1911,13 +1917,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1929,7 +1935,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1937,13 +1943,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1955,7 +1961,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1963,17 +1969,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>27.329999999999998</v>
+        <v>30</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1989,17 +1995,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2007,7 +2013,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2015,13 +2021,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2033,7 +2039,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2047,7 +2053,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2059,7 +2065,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2067,17 +2073,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2085,7 +2091,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2093,17 +2099,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2111,7 +2117,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2119,17 +2125,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2137,7 +2143,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2151,11 +2157,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2163,7 +2169,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2171,17 +2177,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>76.439999999999998</v>
+        <v>43</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2189,7 +2195,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2197,17 +2203,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>16</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2215,7 +2221,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2223,17 +2229,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2241,7 +2247,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2249,17 +2255,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2267,7 +2273,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2275,17 +2281,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2293,7 +2299,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2307,11 +2313,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2319,7 +2325,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2327,17 +2333,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2345,7 +2351,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2353,13 +2359,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2371,7 +2377,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2379,13 +2385,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2397,7 +2403,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2405,17 +2411,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2423,7 +2429,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2431,17 +2437,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2449,7 +2455,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2457,17 +2463,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2475,7 +2481,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2483,17 +2489,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2509,17 +2515,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2527,7 +2533,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2541,7 +2547,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2553,7 +2559,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2561,13 +2567,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2579,7 +2585,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2587,17 +2593,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2605,7 +2611,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2613,13 +2619,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2631,7 +2637,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2639,17 +2645,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2657,7 +2663,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2665,13 +2671,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2697,11 +2703,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2723,11 +2729,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2735,7 +2741,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2743,17 +2749,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2761,7 +2767,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2769,17 +2775,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2787,7 +2793,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2795,13 +2801,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2813,7 +2819,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2821,7 +2827,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -2839,7 +2845,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2847,13 +2853,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2879,11 +2885,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>107</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2891,7 +2897,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2899,17 +2905,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2917,7 +2923,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2925,13 +2931,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2943,7 +2949,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2951,13 +2957,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2969,7 +2975,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2977,13 +2983,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -2995,7 +3001,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3003,13 +3009,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3021,7 +3027,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3029,13 +3035,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>30</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3055,51 +3061,77 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="K86" s="10">
-        <v>3790.8600000000001</v>
-      </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" ht="24.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c t="s" r="B86" s="7">
+        <v>117</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c t="s" r="H86" s="8">
         <v>116</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c t="s" r="F87" s="12">
-        <v>117</v>
-      </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c t="s" r="I87" s="14">
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9">
+        <v>70</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c t="s" r="N86" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="26.25" customHeight="1">
+      <c r="K87" s="10">
+        <v>3805.8600000000001</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="11">
         <v>118</v>
       </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c t="s" r="F88" s="12">
+        <v>119</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="13"/>
+      <c t="s" r="I88" s="14">
+        <v>120</v>
+      </c>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="260">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3353,10 +3385,13 @@
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:N87"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I88:N88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
